--- a/medicine/Handicap/Psychopathie_autistique/Psychopathie_autistique.xlsx
+++ b/medicine/Handicap/Psychopathie_autistique/Psychopathie_autistique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psychopathie autistique est le nom donné par le médecin autrichien Hans Asperger au syndrome qu'il décrit chez quatre enfants dans sa publication en allemand Die “Autistischen Psychopathen” im Kindesalter [« Les psychopathes autistiques pendant l'enfance »]. Ce texte a été proposé à publication le 8 octobre 1943, mais effectivement publié en 1944.
 </t>
@@ -511,9 +523,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Die “Autistischen Psychopathen” im Kindesalter [« Les psychopathes autistiques dans l'enfance »] est la publication issue de la thèse de Hans Asperger, publiée dans une revue de neurologie allemande en 1944[1]. La publication a cependant été soumise à son directeur de thèse Franz Hamburger l'année précédente[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Die “Autistischen Psychopathen” im Kindesalter [« Les psychopathes autistiques dans l'enfance »] est la publication issue de la thèse de Hans Asperger, publiée dans une revue de neurologie allemande en 1944. La publication a cependant été soumise à son directeur de thèse Franz Hamburger l'année précédente.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La traduction du terme psychologique allemand de l'époque (Psychopathie, Psychopath) dans la terminologie actuelle serait « trouble de la personnalité », c'est-à-dire qu'il s'agit de traits de la personnalité et non d'une maladie mentale telle que la schizophrénie[3].
-Hans Asperger emprunte le terme d'« autisme » à Eugène Bleuler pour décrire quatre enfants chez lesquels il observe des troubles de la communication, de l'empathie, et une tendance à considérer les autres personnes comme des objets[4]. Il note également leur difficulté à se faire des amis, des conversations unilatérales, une absorption intense pour un sujet particulier et de la maladresse physique. Il surnomme ces quatre enfants ses « petits professeurs »[5]. Il met en évidence la cohabitation de points forts tels que l'intelligence et la créativité, et de points faibles tels que l'impossibilité à s'habiller seul[6]. Il insiste enfin sur la relative fréquence de ce qu'il décrit, la psychopathie autistique n'étant d'après lui « pas du tout rare »[7].
-D'après Jacques Hochmann, sa description vise à distinguer la condition observée chez ces enfants de la schizophrénie infantile, dans la mesure où ils ne sont « ni hallucinés ni délirants », font souffrir leur famille en raison de leur étrangeté, mais ne souffrent pas eux-mêmes de leur état[8]. Il envisage également que les psychopathes autistiques puissent être réinsérés socialement grâce à une éducation spécialisée[8]. D'après Steve Silberman, Asperger note des ressemblances avec le concept de schizophrénie infantile et en particulier avec le concept de « pensée autistique » défini par Bleuler, mais préfère le terme « psychopathie » afin de définir un état limite entre bonne santé et maladie mentale[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La traduction du terme psychologique allemand de l'époque (Psychopathie, Psychopath) dans la terminologie actuelle serait « trouble de la personnalité », c'est-à-dire qu'il s'agit de traits de la personnalité et non d'une maladie mentale telle que la schizophrénie.
+Hans Asperger emprunte le terme d'« autisme » à Eugène Bleuler pour décrire quatre enfants chez lesquels il observe des troubles de la communication, de l'empathie, et une tendance à considérer les autres personnes comme des objets. Il note également leur difficulté à se faire des amis, des conversations unilatérales, une absorption intense pour un sujet particulier et de la maladresse physique. Il surnomme ces quatre enfants ses « petits professeurs ». Il met en évidence la cohabitation de points forts tels que l'intelligence et la créativité, et de points faibles tels que l'impossibilité à s'habiller seul. Il insiste enfin sur la relative fréquence de ce qu'il décrit, la psychopathie autistique n'étant d'après lui « pas du tout rare ».
+D'après Jacques Hochmann, sa description vise à distinguer la condition observée chez ces enfants de la schizophrénie infantile, dans la mesure où ils ne sont « ni hallucinés ni délirants », font souffrir leur famille en raison de leur étrangeté, mais ne souffrent pas eux-mêmes de leur état. Il envisage également que les psychopathes autistiques puissent être réinsérés socialement grâce à une éducation spécialisée. D'après Steve Silberman, Asperger note des ressemblances avec le concept de schizophrénie infantile et en particulier avec le concept de « pensée autistique » défini par Bleuler, mais préfère le terme « psychopathie » afin de définir un état limite entre bonne santé et maladie mentale.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La publication de Hans Asperger, qui a suivi d'un an celle de Leo Kanner, a été oubliée du monde médical[10].
-Par la suite, la dénomination de syndrome d'Asperger a été préférée pour désigner la condition correspondant aux observations de Hans Asperger, plutôt que celle de « psychopathie autistique » ou même d'« autisme »[11]. D'après Temple Grandin, Lorna Wing l'a préférée afin d'éviter la stigmatisation associée au terme de « psychopathie »[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La publication de Hans Asperger, qui a suivi d'un an celle de Leo Kanner, a été oubliée du monde médical.
+Par la suite, la dénomination de syndrome d'Asperger a été préférée pour désigner la condition correspondant aux observations de Hans Asperger, plutôt que celle de « psychopathie autistique » ou même d'« autisme ». D'après Temple Grandin, Lorna Wing l'a préférée afin d'éviter la stigmatisation associée au terme de « psychopathie ».
 </t>
         </is>
       </c>
